--- a/data/Acid_properties.xlsx
+++ b/data/Acid_properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD797AF-1CA0-42B1-B1FF-0DCCC7A5BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84581C3-8A8B-45E8-9B5C-AFC766CF0994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{D6E14713-EF62-40D5-A875-BAA3F7FAB13A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{D6E14713-EF62-40D5-A875-BAA3F7FAB13A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Acid</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>https://www.sigmaaldrich.com/PT/en/product/aldrich/w262706</t>
+  </si>
+  <si>
+    <t>https://www.chemanalyst.com/Pricing-data/oxalic-acid-1556</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0684B1B-8EE6-404B-9FD1-135EF48961B7}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,14 +1093,24 @@
       <c r="L8">
         <v>1.9</v>
       </c>
+      <c r="M8">
+        <v>720</v>
+      </c>
       <c r="N8" s="1">
-        <v>80.400000000000006</v>
+        <f>M8*0.88*0.001</f>
+        <v>0.63360000000000005</v>
       </c>
       <c r="O8" s="5">
         <v>0.98</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="Q8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>63</v>
       </c>
       <c r="S8">
         <v>0.18990000000000001</v>
